--- a/artfynd/A 32615-2023.xlsx
+++ b/artfynd/A 32615-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111644287</v>
+        <v>111644956</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -713,11 +713,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -725,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>369410.2171064656</v>
+        <v>369440.153794951</v>
       </c>
       <c r="R2" t="n">
-        <v>6635288.297872287</v>
+        <v>6635308.375812992</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -760,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -770,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111644923</v>
+        <v>111645826</v>
       </c>
       <c r="B3" t="n">
-        <v>56543</v>
+        <v>94134</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103021</v>
+        <v>53</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -838,13 +834,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>369436.1354981294</v>
+        <v>369469.7018694163</v>
       </c>
       <c r="R3" t="n">
-        <v>6635294.429866268</v>
+        <v>6635346.076433333</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -873,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -883,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -910,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111645826</v>
+        <v>111644287</v>
       </c>
       <c r="B4" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,28 +918,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>369469.7018694163</v>
+        <v>369410.2171064656</v>
       </c>
       <c r="R4" t="n">
-        <v>6635346.076433333</v>
+        <v>6635288.297872287</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -986,7 +986,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1023,10 +1023,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111644956</v>
+        <v>111644923</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,25 +1035,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1064,13 +1064,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>369440.153794951</v>
+        <v>369436.1354981294</v>
       </c>
       <c r="R5" t="n">
-        <v>6635308.375812992</v>
+        <v>6635294.429866268</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>

--- a/artfynd/A 32615-2023.xlsx
+++ b/artfynd/A 32615-2023.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111645826</v>
+        <v>111644287</v>
       </c>
       <c r="B3" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,28 +805,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -834,10 +838,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>369469.7018694163</v>
+        <v>369410.2171064656</v>
       </c>
       <c r="R3" t="n">
-        <v>6635346.076433333</v>
+        <v>6635288.297872287</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -869,7 +873,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +883,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +910,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111644287</v>
+        <v>111644923</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,32 +922,28 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -951,13 +951,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>369410.2171064656</v>
+        <v>369436.1354981294</v>
       </c>
       <c r="R4" t="n">
-        <v>6635288.297872287</v>
+        <v>6635294.429866268</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1023,10 +1023,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111644923</v>
+        <v>111645826</v>
       </c>
       <c r="B5" t="n">
-        <v>56543</v>
+        <v>94134</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1039,21 +1039,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103021</v>
+        <v>53</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1064,13 +1064,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>369436.1354981294</v>
+        <v>369469.7018694163</v>
       </c>
       <c r="R5" t="n">
-        <v>6635294.429866268</v>
+        <v>6635346.076433333</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 32615-2023.xlsx
+++ b/artfynd/A 32615-2023.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111644287</v>
+        <v>111644923</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,32 +805,28 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -838,13 +834,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>369410.2171064656</v>
+        <v>369436.1354981294</v>
       </c>
       <c r="R3" t="n">
-        <v>6635288.297872287</v>
+        <v>6635294.429866268</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -873,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -883,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -910,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111644923</v>
+        <v>111644287</v>
       </c>
       <c r="B4" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,28 +918,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -951,13 +951,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>369436.1354981294</v>
+        <v>369410.2171064656</v>
       </c>
       <c r="R4" t="n">
-        <v>6635294.429866268</v>
+        <v>6635288.297872287</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 32615-2023.xlsx
+++ b/artfynd/A 32615-2023.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111644923</v>
+        <v>111645826</v>
       </c>
       <c r="B3" t="n">
-        <v>56543</v>
+        <v>94134</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103021</v>
+        <v>53</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>369436.1354981294</v>
+        <v>369469.7018694163</v>
       </c>
       <c r="R3" t="n">
-        <v>6635294.429866268</v>
+        <v>6635346.076433333</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111644287</v>
+        <v>111644923</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,32 +918,28 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -951,13 +947,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>369410.2171064656</v>
+        <v>369436.1354981294</v>
       </c>
       <c r="R4" t="n">
-        <v>6635288.297872287</v>
+        <v>6635294.429866268</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -986,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -996,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1023,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111645826</v>
+        <v>111644287</v>
       </c>
       <c r="B5" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,28 +1031,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>369469.7018694163</v>
+        <v>369410.2171064656</v>
       </c>
       <c r="R5" t="n">
-        <v>6635346.076433333</v>
+        <v>6635288.297872287</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 32615-2023.xlsx
+++ b/artfynd/A 32615-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111644956</v>
+        <v>111644923</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>369440.153794951</v>
+        <v>369436.1354981294</v>
       </c>
       <c r="R2" t="n">
-        <v>6635308.375812992</v>
+        <v>6635294.429866268</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111645826</v>
+        <v>111644287</v>
       </c>
       <c r="B3" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,28 +805,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -834,10 +838,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>369469.7018694163</v>
+        <v>369410.2171064656</v>
       </c>
       <c r="R3" t="n">
-        <v>6635346.076433333</v>
+        <v>6635288.297872287</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -869,7 +873,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +883,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +910,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111644923</v>
+        <v>111644956</v>
       </c>
       <c r="B4" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +922,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,13 +951,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>369436.1354981294</v>
+        <v>369440.153794951</v>
       </c>
       <c r="R4" t="n">
-        <v>6635294.429866268</v>
+        <v>6635308.375812992</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1019,10 +1023,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111644287</v>
+        <v>111645826</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,32 +1035,28 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>369410.2171064656</v>
+        <v>369469.7018694163</v>
       </c>
       <c r="R5" t="n">
-        <v>6635288.297872287</v>
+        <v>6635346.076433333</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 32615-2023.xlsx
+++ b/artfynd/A 32615-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111644923</v>
+        <v>111644956</v>
       </c>
       <c r="B2" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>369436.1354981294</v>
+        <v>369440.153794951</v>
       </c>
       <c r="R2" t="n">
-        <v>6635294.429866268</v>
+        <v>6635308.375812992</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111644287</v>
+        <v>111645826</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,32 +805,28 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -838,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>369410.2171064656</v>
+        <v>369469.7018694163</v>
       </c>
       <c r="R3" t="n">
-        <v>6635288.297872287</v>
+        <v>6635346.076433333</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -873,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -883,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -910,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111644956</v>
+        <v>111644923</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -951,13 +947,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>369440.153794951</v>
+        <v>369436.1354981294</v>
       </c>
       <c r="R4" t="n">
-        <v>6635308.375812992</v>
+        <v>6635294.429866268</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1023,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111645826</v>
+        <v>111644287</v>
       </c>
       <c r="B5" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,28 +1031,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>369469.7018694163</v>
+        <v>369410.2171064656</v>
       </c>
       <c r="R5" t="n">
-        <v>6635346.076433333</v>
+        <v>6635288.297872287</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 32615-2023.xlsx
+++ b/artfynd/A 32615-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111644923</v>
+        <v>111645826</v>
       </c>
       <c r="B2" t="n">
-        <v>56543</v>
+        <v>94134</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103021</v>
+        <v>53</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>369436.1354981294</v>
+        <v>369469.7018694163</v>
       </c>
       <c r="R2" t="n">
-        <v>6635294.429866268</v>
+        <v>6635346.076433333</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111644287</v>
+        <v>111644923</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,32 +805,28 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -838,13 +834,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>369410.2171064656</v>
+        <v>369436.1354981294</v>
       </c>
       <c r="R3" t="n">
-        <v>6635288.297872287</v>
+        <v>6635294.429866268</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -873,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -883,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1023,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111645826</v>
+        <v>111644287</v>
       </c>
       <c r="B5" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,28 +1031,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>369469.7018694163</v>
+        <v>369410.2171064656</v>
       </c>
       <c r="R5" t="n">
-        <v>6635346.076433333</v>
+        <v>6635288.297872287</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 32615-2023.xlsx
+++ b/artfynd/A 32615-2023.xlsx
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111644956</v>
+        <v>111644287</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -939,7 +939,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -947,10 +951,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>369440.153794951</v>
+        <v>369410.2171064656</v>
       </c>
       <c r="R4" t="n">
-        <v>6635308.375812992</v>
+        <v>6635288.297872287</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -982,7 +986,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +996,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,7 +1023,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111644287</v>
+        <v>111644956</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1052,11 +1056,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>369410.2171064656</v>
+        <v>369440.153794951</v>
       </c>
       <c r="R5" t="n">
-        <v>6635288.297872287</v>
+        <v>6635308.375812992</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 32615-2023.xlsx
+++ b/artfynd/A 32615-2023.xlsx
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>369469.7018694163</v>
+        <v>369470</v>
       </c>
       <c r="R2" t="n">
-        <v>6635346.076433333</v>
+        <v>6635346</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111644923</v>
+        <v>111644287</v>
       </c>
       <c r="B3" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,28 +805,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -834,13 +838,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>369436.1354981294</v>
+        <v>369410</v>
       </c>
       <c r="R3" t="n">
-        <v>6635294.429866268</v>
+        <v>6635288</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -869,7 +873,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +883,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +910,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111644287</v>
+        <v>111644956</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -939,11 +943,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>369410.2171064656</v>
+        <v>369440</v>
       </c>
       <c r="R4" t="n">
-        <v>6635288.297872287</v>
+        <v>6635308</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -986,7 +986,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1023,10 +1023,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111644956</v>
+        <v>111644923</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,25 +1035,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1064,13 +1064,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>369440.153794951</v>
+        <v>369436</v>
       </c>
       <c r="R5" t="n">
-        <v>6635308.375812992</v>
+        <v>6635294</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>

--- a/artfynd/A 32615-2023.xlsx
+++ b/artfynd/A 32615-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111645826</v>
+        <v>111644287</v>
       </c>
       <c r="B2" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,28 +692,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -721,10 +725,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>369470</v>
+        <v>369410</v>
       </c>
       <c r="R2" t="n">
-        <v>6635346</v>
+        <v>6635288</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,7 +760,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +770,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +797,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111644287</v>
+        <v>111644956</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -826,11 +830,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>369410</v>
+        <v>369440</v>
       </c>
       <c r="R3" t="n">
-        <v>6635288</v>
+        <v>6635308</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -873,7 +873,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -910,10 +910,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111644956</v>
+        <v>111644923</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,25 +922,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -951,13 +951,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>369440</v>
+        <v>369436</v>
       </c>
       <c r="R4" t="n">
-        <v>6635308</v>
+        <v>6635294</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111644923</v>
+        <v>111645826</v>
       </c>
       <c r="B5" t="n">
-        <v>56543</v>
+        <v>94134</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1039,21 +1039,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103021</v>
+        <v>53</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1064,13 +1064,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>369436</v>
+        <v>369470</v>
       </c>
       <c r="R5" t="n">
-        <v>6635294</v>
+        <v>6635346</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 32615-2023.xlsx
+++ b/artfynd/A 32615-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111644287</v>
+        <v>111645826</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,32 +692,28 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -725,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>369410</v>
+        <v>369470</v>
       </c>
       <c r="R2" t="n">
-        <v>6635288</v>
+        <v>6635346</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -760,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -770,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111644956</v>
+        <v>111644287</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -830,7 +826,11 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>369440</v>
+        <v>369410</v>
       </c>
       <c r="R3" t="n">
-        <v>6635308</v>
+        <v>6635288</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -873,7 +873,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -910,10 +910,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111644923</v>
+        <v>111644956</v>
       </c>
       <c r="B4" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,25 +922,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -951,13 +951,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>369436</v>
+        <v>369440</v>
       </c>
       <c r="R4" t="n">
-        <v>6635294</v>
+        <v>6635308</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111645826</v>
+        <v>111644923</v>
       </c>
       <c r="B5" t="n">
-        <v>94134</v>
+        <v>56543</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1039,21 +1039,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>103021</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1064,13 +1064,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>369470</v>
+        <v>369436</v>
       </c>
       <c r="R5" t="n">
-        <v>6635346</v>
+        <v>6635294</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD5" t="b">
